--- a/Programacion/ECG/Probabilidades.xlsx
+++ b/Programacion/ECG/Probabilidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ECG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Universidad UVG\Sexto Año\Segundo Ciclo\Tesis\Tesis-2022-Erick-Aquino\Programacion\ECG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA942C-F084-4C3D-9677-0FC9B47EA76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963345C8-949D-4BBD-BB06-C3DADD0206EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F10256D8-27A2-424D-89BF-3F066ADC47A4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Rand</t>
   </si>
@@ -50,13 +50,37 @@
   </si>
   <si>
     <t>Resultados nueva data</t>
+  </si>
+  <si>
+    <t>test size</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +91,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,18 +123,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -115,6 +259,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FFFD801-38EE-4C08-B615-6C41CAB5AE2B}" name="Table1" displayName="Table1" ref="A12:F26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" dataCellStyle="Percent">
+  <autoFilter ref="A12:F26" xr:uid="{0FFFD801-38EE-4C08-B615-6C41CAB5AE2B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{704B6DF0-6EEB-4568-BFE0-99DFA8BD4517}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B9530045-4E39-4EC6-A358-6996F0C511CE}" name="Column2" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{C8DE9F4D-F940-48D6-9FAD-CEBF081F2A73}" name="Column3" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{390F0436-9877-49ED-B452-12F61E02EF05}" name="Column4" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>(B13+C13)/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CE16E287-7FB5-49EC-A80E-79FDD12E1AF5}" name="Column5" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{6A28AF11-6216-4992-8D53-DF90BF015AD6}" name="Column6" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,15 +575,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C8CAD5-3159-4916-9B35-2DA279F90502}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -615,120 +778,290 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>213</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.84722222222222199</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.83561643835616395</v>
-      </c>
-      <c r="D14" s="1">
-        <f>(B14+C14)/2</f>
-        <v>0.84141933028919302</v>
-      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1">
-        <v>0.79166666666666596</v>
+        <v>0.84722222222222199</v>
       </c>
       <c r="C15" s="1">
-        <v>0.87671232876712302</v>
+        <v>0.83561643835616395</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D19" si="1">(B15+C15)/2</f>
-        <v>0.83418949771689443</v>
-      </c>
+        <f>(B15+C15)/2</f>
+        <v>0.84141933028919302</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.87671232876712302</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D23" si="1">(B16+C16)/2</f>
+        <v>0.83418949771689443</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>0.86111111111111105</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>0.83561643835616395</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>0.84836377473363744</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>169</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>0.80555555555555503</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>0.86301369863013699</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>0.83428462709284601</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>291</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>0.84931506849314997</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>0.84132420091324156</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>274</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>0.875</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>0.84931506849314997</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>0.86215753424657504</v>
       </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.76388888888888795</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.90410958904109495</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83399923896499151</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>219</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.81034482758620596</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.93103448275862</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87068965517241304</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C23">
+        <v>0.83561643835616395</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80280821917808198</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.80172413793103403</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(B24+C24)/2</f>
+        <v>0.88362068965517204</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>270</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <f>(B25+C25)/2</f>
+        <v>0.876</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.83620689655172398</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="D26" s="1">
+        <f>(B26+C26)/2</f>
+        <v>0.84913793103448243</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>